--- a/src/mapex/gcp/attack-10.0/gcp-06.28.2022/enterprise/gcp-06.28.2022_attack-10.0-enterprise.xlsx
+++ b/src/mapex/gcp/attack-10.0/gcp-06.28.2022/enterprise/gcp-06.28.2022_attack-10.0-enterprise.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>not_mappable</t>
+          <t>non_mappable</t>
         </is>
       </c>
       <c r="M362" t="inlineStr"/>

--- a/src/mapex/gcp/attack-10.0/gcp-06.28.2022/enterprise/gcp-06.28.2022_attack-10.0-enterprise.xlsx
+++ b/src/mapex/gcp/attack-10.0/gcp-06.28.2022/enterprise/gcp-06.28.2022_attack-10.0-enterprise.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>capability_group</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
